--- a/maddLoop/maddLoop.xlsx
+++ b/maddLoop/maddLoop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/GPUtestCases/maddLoop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625537CA-A890-FB43-8671-EEF48DE3B643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8788943-37DA-3C4E-A947-45AFC44D3B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13640" yWindow="1520" windowWidth="28040" windowHeight="17440" xr2:uid="{C3816ADD-1943-D443-AC07-3687B9D90C0D}"/>
+    <workbookView xWindow="5560" yWindow="1520" windowWidth="28040" windowHeight="17440" xr2:uid="{C3816ADD-1943-D443-AC07-3687B9D90C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,12 +77,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -195,6 +201,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E7D36D-2EE5-0C47-B526-29CE3B3C46E7}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,64 +684,64 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="16">
         <v>64</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="16">
         <v>2.444</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="17">
         <v>1.395</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19">
         <v>128</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="19">
         <v>2.444</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="20">
         <v>1.395</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19">
         <v>256</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="19">
         <v>2.444</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="20">
         <v>1.395</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19">
         <v>512</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="19">
         <v>2.444</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="20">
         <v>1.502</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22">
         <v>1024</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="22">
         <v>2.444</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="20">
         <v>2.0030000000000001</v>
       </c>
     </row>
